--- a/team_specific_matrix/Princeton_B.xlsx
+++ b/team_specific_matrix/Princeton_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1889763779527559</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C2">
-        <v>0.5354330708661418</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.007874015748031496</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="P2">
-        <v>0.1338582677165354</v>
+        <v>0.1130952380952381</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1338582677165354</v>
+        <v>0.130952380952381</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01388888888888889</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C3">
-        <v>0.05555555555555555</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.75</v>
+        <v>0.7669902912621359</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1805555555555556</v>
+        <v>0.145631067961165</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.35</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04273504273504274</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008547008547008548</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07692307692307693</v>
+        <v>0.06626506024096386</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1452991452991453</v>
+        <v>0.1867469879518072</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02564102564102564</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2478632478632479</v>
+        <v>0.2349397590361446</v>
       </c>
       <c r="R6">
-        <v>0.08547008547008547</v>
+        <v>0.0783132530120482</v>
       </c>
       <c r="S6">
-        <v>0.3675213675213675</v>
+        <v>0.3493975903614458</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1228070175438596</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008771929824561403</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="E7">
-        <v>0.008771929824561403</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="F7">
-        <v>0.02631578947368421</v>
+        <v>0.03246753246753246</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1228070175438596</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.05263157894736842</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1491228070175439</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="R7">
-        <v>0.07017543859649122</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S7">
-        <v>0.4385964912280702</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08230452674897119</v>
+        <v>0.075</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01646090534979424</v>
+        <v>0.015625</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05761316872427984</v>
+        <v>0.05625</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09465020576131687</v>
+        <v>0.09375</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01646090534979424</v>
+        <v>0.028125</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1893004115226337</v>
+        <v>0.2</v>
       </c>
       <c r="R8">
-        <v>0.1069958847736626</v>
+        <v>0.096875</v>
       </c>
       <c r="S8">
-        <v>0.4362139917695473</v>
+        <v>0.434375</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05747126436781609</v>
+        <v>0.07391304347826087</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01149425287356322</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08045977011494253</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.103448275862069</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03448275862068965</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2298850574712644</v>
+        <v>0.2043478260869565</v>
       </c>
       <c r="R9">
-        <v>0.1206896551724138</v>
+        <v>0.1260869565217391</v>
       </c>
       <c r="S9">
-        <v>0.3620689655172414</v>
+        <v>0.3565217391304348</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07834101382488479</v>
+        <v>0.07709497206703911</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0184331797235023</v>
+        <v>0.01787709497206704</v>
       </c>
       <c r="E10">
-        <v>0.001536098310291859</v>
+        <v>0.00111731843575419</v>
       </c>
       <c r="F10">
-        <v>0.07219662058371736</v>
+        <v>0.07486033519553073</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1044546850998464</v>
+        <v>0.1050279329608939</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0261136712749616</v>
+        <v>0.02011173184357542</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2027649769585254</v>
+        <v>0.2022346368715084</v>
       </c>
       <c r="R10">
-        <v>0.07834101382488479</v>
+        <v>0.07150837988826815</v>
       </c>
       <c r="S10">
-        <v>0.4178187403993855</v>
+        <v>0.4301675977653631</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1310344827586207</v>
+        <v>0.1256544502617801</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06206896551724138</v>
+        <v>0.05759162303664921</v>
       </c>
       <c r="K11">
-        <v>0.1586206896551724</v>
+        <v>0.1413612565445026</v>
       </c>
       <c r="L11">
-        <v>0.6482758620689655</v>
+        <v>0.6701570680628273</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.005235602094240838</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8125</v>
+        <v>0.8091603053435115</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1354166666666667</v>
+        <v>0.1374045801526718</v>
       </c>
       <c r="K12">
-        <v>0.02083333333333333</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="L12">
-        <v>0.03125</v>
+        <v>0.03053435114503817</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7666666666666667</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1333333333333333</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1283,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2167832167832168</v>
+        <v>0.1921182266009852</v>
       </c>
       <c r="I15">
-        <v>0.07692307692307693</v>
+        <v>0.07389162561576355</v>
       </c>
       <c r="J15">
-        <v>0.2937062937062937</v>
+        <v>0.3300492610837438</v>
       </c>
       <c r="K15">
-        <v>0.04895104895104895</v>
+        <v>0.04926108374384237</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05594405594405594</v>
+        <v>0.05911330049261083</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3076923076923077</v>
+        <v>0.2906403940886699</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02564102564102564</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.141025641025641</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="I16">
-        <v>0.1794871794871795</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="J16">
-        <v>0.358974358974359</v>
+        <v>0.3394495412844037</v>
       </c>
       <c r="K16">
-        <v>0.07692307692307693</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02564102564102564</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1153846153846154</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.07692307692307693</v>
+        <v>0.09174311926605505</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01136363636363636</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1818181818181818</v>
+        <v>0.1769662921348314</v>
       </c>
       <c r="I17">
-        <v>0.1553030303030303</v>
+        <v>0.1544943820224719</v>
       </c>
       <c r="J17">
-        <v>0.3939393939393939</v>
+        <v>0.3960674157303371</v>
       </c>
       <c r="K17">
-        <v>0.04924242424242424</v>
+        <v>0.04775280898876404</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.04166666666666666</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07575757575757576</v>
+        <v>0.08707865168539326</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09090909090909091</v>
+        <v>0.09269662921348315</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02564102564102564</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1196581196581197</v>
+        <v>0.14</v>
       </c>
       <c r="I18">
-        <v>0.1538461538461539</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="J18">
-        <v>0.4700854700854701</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="K18">
-        <v>0.08547008547008547</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0170940170940171</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07692307692307693</v>
+        <v>0.08</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05128205128205128</v>
+        <v>0.04666666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.006793478260869565</v>
+        <v>0.009940357852882704</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1915760869565217</v>
+        <v>0.1848906560636183</v>
       </c>
       <c r="I19">
-        <v>0.1195652173913044</v>
+        <v>0.1153081510934394</v>
       </c>
       <c r="J19">
-        <v>0.3722826086956522</v>
+        <v>0.36779324055666</v>
       </c>
       <c r="K19">
-        <v>0.108695652173913</v>
+        <v>0.1073558648111332</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0203804347826087</v>
+        <v>0.02087475149105368</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0009940357852882703</v>
       </c>
       <c r="O19">
-        <v>0.05978260869565218</v>
+        <v>0.06858846918489066</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1209239130434783</v>
+        <v>0.1242544731610338</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Princeton_B.xlsx
+++ b/team_specific_matrix/Princeton_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1785714285714286</v>
+        <v>0.1871657754010695</v>
       </c>
       <c r="C2">
-        <v>0.5714285714285714</v>
+        <v>0.5668449197860963</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.005952380952380952</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="P2">
-        <v>0.1130952380952381</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.130952380952381</v>
+        <v>0.1229946524064171</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009708737864077669</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C3">
-        <v>0.06796116504854369</v>
+        <v>0.06194690265486726</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.009708737864077669</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7669902912621359</v>
+        <v>0.7522123893805309</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.145631067961165</v>
+        <v>0.168141592920354</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04819277108433735</v>
+        <v>0.0427807486631016</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006024096385542169</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06626506024096386</v>
+        <v>0.06951871657754011</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1867469879518072</v>
+        <v>0.2032085561497326</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03012048192771084</v>
+        <v>0.03208556149732621</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2349397590361446</v>
+        <v>0.2245989304812834</v>
       </c>
       <c r="R6">
-        <v>0.0783132530120482</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="S6">
-        <v>0.3493975903614458</v>
+        <v>0.3368983957219251</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1103896103896104</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006493506493506494</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="E7">
-        <v>0.006493506493506494</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="F7">
-        <v>0.03246753246753246</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1103896103896104</v>
+        <v>0.1067415730337079</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.05194805194805195</v>
+        <v>0.05056179775280899</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1558441558441558</v>
+        <v>0.151685393258427</v>
       </c>
       <c r="R7">
-        <v>0.07142857142857142</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="S7">
-        <v>0.4545454545454545</v>
+        <v>0.4382022471910113</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.075</v>
+        <v>0.07242339832869081</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.015625</v>
+        <v>0.01392757660167131</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05625</v>
+        <v>0.05292479108635097</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09375</v>
+        <v>0.08356545961002786</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.028125</v>
+        <v>0.03621169916434541</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2</v>
+        <v>0.1949860724233983</v>
       </c>
       <c r="R8">
-        <v>0.096875</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="S8">
-        <v>0.434375</v>
+        <v>0.4512534818941504</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07391304347826087</v>
+        <v>0.07251908396946564</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008695652173913044</v>
+        <v>0.01145038167938931</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08695652173913043</v>
+        <v>0.08015267175572519</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.108695652173913</v>
+        <v>0.1106870229007634</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03478260869565217</v>
+        <v>0.03053435114503817</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2043478260869565</v>
+        <v>0.1946564885496183</v>
       </c>
       <c r="R9">
-        <v>0.1260869565217391</v>
+        <v>0.1297709923664122</v>
       </c>
       <c r="S9">
-        <v>0.3565217391304348</v>
+        <v>0.3702290076335878</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07709497206703911</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01787709497206704</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E10">
-        <v>0.00111731843575419</v>
+        <v>0.000992063492063492</v>
       </c>
       <c r="F10">
-        <v>0.07486033519553073</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1050279329608939</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02011173184357542</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2022346368715084</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="R10">
-        <v>0.07150837988826815</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="S10">
-        <v>0.4301675977653631</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1256544502617801</v>
+        <v>0.1266968325791855</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05759162303664921</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="K11">
-        <v>0.1413612565445026</v>
+        <v>0.1447963800904978</v>
       </c>
       <c r="L11">
-        <v>0.6701570680628273</v>
+        <v>0.669683257918552</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.005235602094240838</v>
+        <v>0.004524886877828055</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8091603053435115</v>
+        <v>0.8092105263157895</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1374045801526718</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="K12">
-        <v>0.02290076335877863</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="L12">
-        <v>0.03053435114503817</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7560975609756098</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1707317073170732</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07317073170731707</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1921182266009852</v>
+        <v>0.1822033898305085</v>
       </c>
       <c r="I15">
-        <v>0.07389162561576355</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="J15">
-        <v>0.3300492610837438</v>
+        <v>0.3474576271186441</v>
       </c>
       <c r="K15">
-        <v>0.04926108374384237</v>
+        <v>0.05508474576271186</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004926108374384237</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05911330049261083</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2906403940886699</v>
+        <v>0.2796610169491525</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03669724770642202</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1284403669724771</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="I16">
-        <v>0.1926605504587156</v>
+        <v>0.1885245901639344</v>
       </c>
       <c r="J16">
-        <v>0.3394495412844037</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="K16">
-        <v>0.06422018348623854</v>
+        <v>0.07377049180327869</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04587155963302753</v>
+        <v>0.04098360655737705</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1009174311926606</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09174311926605505</v>
+        <v>0.09016393442622951</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01123595505617977</v>
+        <v>0.01518987341772152</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1769662921348314</v>
+        <v>0.179746835443038</v>
       </c>
       <c r="I17">
-        <v>0.1544943820224719</v>
+        <v>0.1468354430379747</v>
       </c>
       <c r="J17">
-        <v>0.3960674157303371</v>
+        <v>0.3949367088607595</v>
       </c>
       <c r="K17">
-        <v>0.04775280898876404</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03370786516853932</v>
+        <v>0.03291139240506329</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08707865168539326</v>
+        <v>0.08354430379746836</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09269662921348315</v>
+        <v>0.09620253164556962</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02666666666666667</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.14</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="I18">
-        <v>0.1466666666666667</v>
+        <v>0.1534090909090909</v>
       </c>
       <c r="J18">
-        <v>0.4533333333333333</v>
+        <v>0.4375</v>
       </c>
       <c r="K18">
-        <v>0.09333333333333334</v>
+        <v>0.08522727272727272</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01333333333333333</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.04666666666666667</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009940357852882704</v>
+        <v>0.009700176366843033</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1848906560636183</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="I19">
-        <v>0.1153081510934394</v>
+        <v>0.1208112874779541</v>
       </c>
       <c r="J19">
-        <v>0.36779324055666</v>
+        <v>0.3677248677248677</v>
       </c>
       <c r="K19">
-        <v>0.1073558648111332</v>
+        <v>0.109347442680776</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02087475149105368</v>
+        <v>0.02028218694885361</v>
       </c>
       <c r="N19">
-        <v>0.0009940357852882703</v>
+        <v>0.0008818342151675485</v>
       </c>
       <c r="O19">
-        <v>0.06858846918489066</v>
+        <v>0.06966490299823633</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1242544731610338</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
   </sheetData>
